--- a/src/assets/keyconversiontable.xlsx
+++ b/src/assets/keyconversiontable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaug\beaugilles\Projects\PM\AutoHotPie\Resources\AutoHotPieSettingsUI\AutoHotPieSettings\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaug\beaugilles\Projects\PM\AutoHotPie\Resources\AutoHotPieSettingsUI\AutoHotPie\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A338153E-636D-45A5-92BD-18B9A8199BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6388E9D-0AB3-460E-B16F-1E9D9B5BF93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7C031436-994D-4CBC-BB7F-286DC299F716}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{7C031436-994D-4CBC-BB7F-286DC299F716}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="237">
   <si>
     <t>displayKey</t>
   </si>
@@ -742,6 +742,9 @@
   </si>
   <si>
     <t>f32</t>
+  </si>
+  <si>
+    <t>NumLock</t>
   </si>
 </sst>
 </file>
@@ -1116,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C14AE4-240C-49EA-A429-431D3013D990}">
   <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,12 +1492,6 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -1505,6 +1502,12 @@
       <c r="A46">
         <v>44</v>
       </c>
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -2011,51 +2014,111 @@
       <c r="A98">
         <v>96</v>
       </c>
+      <c r="B98" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
+      <c r="B99" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
+      <c r="B100" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
+      <c r="B101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C101" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
+      <c r="B102" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
+      <c r="B103" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
+      <c r="B104" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
+      <c r="B105" t="s">
+        <v>101</v>
+      </c>
+      <c r="C105" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
+      <c r="B106" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
+      <c r="B107" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
@@ -2472,6 +2535,12 @@
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>236</v>
+      </c>
+      <c r="C146" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/assets/keyconversiontable.xlsx
+++ b/src/assets/keyconversiontable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaug\beaugilles\Projects\PM\AutoHotPie\Resources\AutoHotPieSettingsUI\AutoHotPie\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6388E9D-0AB3-460E-B16F-1E9D9B5BF93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE1529B-A114-4037-A16C-DBE15D997F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{7C031436-994D-4CBC-BB7F-286DC299F716}"/>
+    <workbookView xWindow="41295" yWindow="2985" windowWidth="28800" windowHeight="15555" xr2:uid="{7C031436-994D-4CBC-BB7F-286DC299F716}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="241">
   <si>
     <t>displayKey</t>
   </si>
@@ -745,6 +745,18 @@
   </si>
   <si>
     <t>NumLock</t>
+  </si>
+  <si>
+    <t>WheelUp</t>
+  </si>
+  <si>
+    <t>WheelDown</t>
+  </si>
+  <si>
+    <t>Wheel Up</t>
+  </si>
+  <si>
+    <t>Wheel Down</t>
   </si>
 </sst>
 </file>
@@ -1119,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C14AE4-240C-49EA-A429-431D3013D990}">
   <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,10 +2570,22 @@
       <c r="A148">
         <v>146</v>
       </c>
+      <c r="B148" t="s">
+        <v>239</v>
+      </c>
+      <c r="C148" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>240</v>
+      </c>
+      <c r="C149" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
